--- a/biology/Zoologie/Cétoine_grise/Cétoine_grise.xlsx
+++ b/biology/Zoologie/Cétoine_grise/Cétoine_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9toine_grise</t>
+          <t>Cétoine_grise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxythyrea funesta
 La Cétoine grise, Oxythyrea funesta, est une espèce de coléoptères de la famille des Scarabaeidae, de la sous-famille des Cetoniinae (cétoines).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9toine_grise</t>
+          <t>Cétoine_grise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce coléoptère est présent pratiquement dans toute l'Europe, dans l'écozone paléarctique  et au Proche-Orient[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce coléoptère est présent pratiquement dans toute l'Europe, dans l'écozone paléarctique  et au Proche-Orient,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9toine_grise</t>
+          <t>Cétoine_grise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves mesurent jusqu'à 30 mm de long et se nourrissent de matières en décomposition[3] et des racines des plantes[4],[5]. Elle est aussi saproxylique[6]. Elles peuvent rester jusqu'au printemps suivant dans le sol.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves mesurent jusqu'à 30 mm de long et se nourrissent de matières en décomposition et des racines des plantes,. Elle est aussi saproxylique. Elles peuvent rester jusqu'au printemps suivant dans le sol.
 Les adultes apparaissent au début du printemps et peuvent être rencontrés de mai à juillet. Ils grandissent jusqu'à 1 à 1,5 cm. Leur vol fait un bruit semblable à celui de l'abeille.
 Leur couleur est noire, tendant vers le bronze ou verdâtre.
 Les mâles présentent au milieu de la face ventrale de l'abdomen sur le pronotum quatre à six points blancs sur deux rangées longitudinales et beaucoup d'autres sur les élytres ainsi que 3 dents sur le tibia antérieur dont deux orientées vers l'extérieur. Chez les femelles, l'abdomen est noir et bombé. Jeune, ils sont entièrement recouverts d'une pubescence blanche qui disparaît en environ deux mois.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9toine_grise</t>
+          <t>Cétoine_grise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,17 +601,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Oxythyrea funesta a été décrite par l’entomologiste autrichien Nicolaus Poda von Neuhaus en 1761.
-Noms vernaculaires
-Cétoine grise,
-Cétoine noire à points blancs,
-« drap mortuaire »,
-cétoine funeste.
-Sous-espèces
-Oxythyrea funesta var. Consobrina Villa
-Oxythyrea funesta var. deleta Mulsant</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Oxythyrea funesta a été décrite par l’entomologiste autrichien Nicolaus Poda von Neuhaus en 1761.
+</t>
         </is>
       </c>
     </row>
@@ -605,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9toine_grise</t>
+          <t>Cétoine_grise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,10 +631,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cétoine grise,
+Cétoine noire à points blancs,
+« drap mortuaire »,
+cétoine funeste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cétoine_grise</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9toine_grise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oxythyrea funesta var. Consobrina Villa
+Oxythyrea funesta var. deleta Mulsant</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cétoine_grise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9toine_grise</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>La Cétoine grise et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette cétoine phytophage est considérée comme insecte nuisible car elle ne se nourrit pas seulement de pollen, mais aussi des organes floraux, en particulier des bourgeons et fleurs de couleur claire des Rosaceae (les fleurs d'arbres fruitiers, de roses et d’iris notamment). Lorsque leur nombre est important, ils peuvent occasionner des dégâts dans les vergers de pêchers, d'agrumes, d'Actinidia (Kiwi) ou les cultures de plantes ornementales lors de la floraison, en consommant les étamines ou en endommageant les pistils.
 La Cétoine noire à points blancs n'a qu'un seul prédateur, la Scolie hirsute (Scolia hirta), une guêpe qui la parasite. Cette  espèce de guêpe est en voie de disparition, laissant ainsi le champ libre à la prolifération de la Cétoine noire à points blancs.
